--- a/ods/25-KW09 Time-Sheet.xlsx
+++ b/ods/25-KW09 Time-Sheet.xlsx
@@ -3113,11 +3113,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>24.02.2025</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3161,11 +3157,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>24.02.2025</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3209,11 +3201,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>24.02.2025</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3257,11 +3245,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>24.02.2025</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3305,11 +3289,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>25.02.2025</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3353,11 +3333,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>25.02.2025</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3401,11 +3377,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>25.02.2025</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3449,11 +3421,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>25.02.2025</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3497,11 +3465,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>25.02.2025</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3545,11 +3509,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>26.02.2025</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3593,11 +3553,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>26.02.2025</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3641,11 +3597,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>26.02.2025</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3689,11 +3641,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>26.02.2025</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3737,11 +3685,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>26.02.2025</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3785,11 +3729,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>27.02.2025</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3833,11 +3773,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>27.02.2025</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3881,11 +3817,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>27.02.2025</t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
           <t>08:00</t>
